--- a/dataset/result/tiedK_mockito.xlsx
+++ b/dataset/result/tiedK_mockito.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,25 +506,25 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09210526315789473</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1686746987951807</v>
+        <v>0.09615384615384616</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -550,25 +550,25 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="H3" t="n">
-        <v>541</v>
+        <v>246</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04585537918871252</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08768971332209106</v>
+        <v>0.06405693950177936</v>
       </c>
     </row>
     <row r="4">
@@ -579,40 +579,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>smote</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>39</v>
-      </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H4" t="n">
-        <v>1213</v>
+        <v>84</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03115015974440894</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="K4" t="n">
-        <v>0.975</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06037151702786378</v>
+        <v>0.0970873786407767</v>
       </c>
     </row>
     <row r="5">
@@ -623,7 +623,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,31 +632,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>315</v>
       </c>
       <c r="H5" t="n">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09210526315789473</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1686746987951807</v>
+        <v>0.03802281368821293</v>
       </c>
     </row>
     <row r="6">
@@ -667,40 +667,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>smote</t>
+          <t>over</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
+        <v>57</v>
+      </c>
+      <c r="H6" t="n">
+        <v>83</v>
+      </c>
+      <c r="I6" t="n">
         <v>9</v>
       </c>
-      <c r="H6" t="n">
-        <v>538</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>0.04609929078014184</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08813559322033898</v>
+        <v>0.09803921568627451</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +711,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>smote</t>
+          <t>over</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="H7" t="n">
-        <v>1206</v>
+        <v>247</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03132530120481928</v>
+        <v>0.03515625</v>
       </c>
       <c r="K7" t="n">
-        <v>0.975</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06070038910505837</v>
+        <v>0.06382978723404255</v>
       </c>
     </row>
     <row r="8">
@@ -755,12 +755,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -770,25 +770,25 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="H8" t="n">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09210526315789473</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1686746987951807</v>
+        <v>0.09433962264150944</v>
       </c>
     </row>
     <row r="9">
@@ -799,12 +799,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -814,25 +814,25 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="H9" t="n">
-        <v>540</v>
+        <v>316</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04593639575971731</v>
+        <v>0.03951367781155015</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08783783783783784</v>
+        <v>0.07323943661971831</v>
       </c>
     </row>
     <row r="10">
@@ -848,35 +848,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>1221</v>
+        <v>133</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0317208564631245</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06149116064565718</v>
+        <v>0.1392405063291139</v>
       </c>
     </row>
     <row r="11">
@@ -892,35 +892,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17</v>
+      </c>
+      <c r="H11" t="n">
+        <v>530</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>138</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
-        <v>0.09210526315789473</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1686746987951807</v>
+        <v>0.08605851979345955</v>
       </c>
     </row>
     <row r="12">
@@ -936,35 +936,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>smote</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>508</v>
+        <v>133</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03969754253308128</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07567567567567568</v>
+        <v>0.1392405063291139</v>
       </c>
     </row>
     <row r="13">
@@ -980,35 +980,1267 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43</v>
+      </c>
+      <c r="H13" t="n">
+        <v>504</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.07622504537205081</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>133</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1392405063291139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>531</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.04496402877697842</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0859106529209622</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>under</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>133</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.06993006993006994</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.1273885350318471</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19</v>
+      </c>
+      <c r="G17" t="n">
+        <v>93</v>
+      </c>
+      <c r="H17" t="n">
+        <v>454</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.040169133192389</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.07615230460921844</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
-        <v>37</v>
-      </c>
-      <c r="G13" t="n">
-        <v>320</v>
-      </c>
-      <c r="H13" t="n">
-        <v>912</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.03898840885142255</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.925</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.07482305358948432</v>
+      <c r="G18" t="n">
+        <v>65</v>
+      </c>
+      <c r="H18" t="n">
+        <v>75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1063829787234043</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>498</v>
+      </c>
+      <c r="H19" t="n">
+        <v>49</v>
+      </c>
+      <c r="I19" t="n">
+        <v>23</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>68</v>
+      </c>
+      <c r="H20" t="n">
+        <v>72</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.1098901098901099</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>246</v>
+      </c>
+      <c r="H21" t="n">
+        <v>301</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.03525641025641026</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0650887573964497</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>69</v>
+      </c>
+      <c r="H22" t="n">
+        <v>71</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>269</v>
+      </c>
+      <c r="H23" t="n">
+        <v>278</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.04137931034482759</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0759493670886076</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>70</v>
+      </c>
+      <c r="H24" t="n">
+        <v>70</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1123595505617977</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G25" t="n">
+        <v>263</v>
+      </c>
+      <c r="H25" t="n">
+        <v>284</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.04054054054054054</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.07453416149068323</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>56</v>
+      </c>
+      <c r="H26" t="n">
+        <v>84</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1153846153846154</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>410</v>
+      </c>
+      <c r="H27" t="n">
+        <v>137</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.02142857142857143</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.03614457831325301</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>56</v>
+      </c>
+      <c r="H28" t="n">
+        <v>84</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>214</v>
+      </c>
+      <c r="I29" t="n">
+        <v>18</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.03603603603603604</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" t="n">
+        <v>53</v>
+      </c>
+      <c r="H30" t="n">
+        <v>87</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1121495327102804</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>353</v>
+      </c>
+      <c r="H31" t="n">
+        <v>194</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.05309734513274336</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>58</v>
+      </c>
+      <c r="H32" t="n">
+        <v>82</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.05747126436781609</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.09900990099009901</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11</v>
+      </c>
+      <c r="G33" t="n">
+        <v>225</v>
+      </c>
+      <c r="H33" t="n">
+        <v>322</v>
+      </c>
+      <c r="I33" t="n">
+        <v>15</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.03303303303303303</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.06128133704735376</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>86</v>
+      </c>
+      <c r="H34" t="n">
+        <v>54</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.08450704225352113</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>547</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>26</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>116</v>
+      </c>
+      <c r="H36" t="n">
+        <v>24</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>325</v>
+      </c>
+      <c r="H37" t="n">
+        <v>222</v>
+      </c>
+      <c r="I37" t="n">
+        <v>21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.02202643171806168</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.03952569169960474</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>115</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0975609756097561</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>347</v>
+      </c>
+      <c r="H39" t="n">
+        <v>200</v>
+      </c>
+      <c r="I39" t="n">
+        <v>19</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.03381642512077294</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.06008583690987124</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>128</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12</v>
+      </c>
+      <c r="I40" t="n">
+        <v>12</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>mockito</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8</v>
+      </c>
+      <c r="G41" t="n">
+        <v>337</v>
+      </c>
+      <c r="H41" t="n">
+        <v>210</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.03669724770642202</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.06557377049180328</v>
       </c>
     </row>
   </sheetData>
